--- a/biology/Botanique/Plocospermataceae/Plocospermataceae.xlsx
+++ b/biology/Botanique/Plocospermataceae/Plocospermataceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Plocospermatacées est une famille de plantes dicotylédones qui ne comprend qu'une espèce Plocosperma buxifolium (it).
 Ce sont des arbres ou des arbustes à petites feuilles persistantes, des régions subtropicales à tropicales, originaires du Mexique et d'Amérique centrale.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Plocosperma, composé des mots grecs πλόκος / plokos, «  touffe de cheveux noués ou bouclés », et σπέρμα / sperma, « semence ; graine », en référence aux caractères de l’unique espèce de cette famille.
 Les noms scientifiques du genre et de l'espèce ont été définis par le botaniste anglais George Bentham (1800-1884) dans Hooker's Icones Plantarum. Le nom de famille a été défini par le botaniste et taxonomiste anglais John Hutchinson (1884-1972) dans Families of Flowering Plants.
@@ -544,7 +558,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique situe cette famille dans l'ordre des Lamiales.
 </t>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[2], GRIN            (12 nov. 2015)[3], NCBI  (12 nov. 2015)[4] et DELTA Angio           (12 nov. 2015)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015), GRIN            (12 nov. 2015), NCBI  (12 nov. 2015) et DELTA Angio           (12 nov. 2015) :
 Plocosperma Benth.</t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (8 Jul 2010)[6] et GRIN            (8 Jul 2010)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (8 Jul 2010) et GRIN            (8 Jul 2010) :
 genre Plocosperma Benth.
 Plocosperma buxifolium Benth.</t>
         </is>
